--- a/000 TABLAS GENERALES/Parametros.xlsx
+++ b/000 TABLAS GENERALES/Parametros.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\000 TABLAS GENERALES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{986C286E-A510-431F-A832-6458F7DCE155}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB580BA-4F7C-43E5-A3AA-8E8DC716D1E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4056" yWindow="3132" windowWidth="15336" windowHeight="8736" xr2:uid="{869A6AB3-C8F1-4106-B639-0A77B497AF74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{869A6AB3-C8F1-4106-B639-0A77B497AF74}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="129">
   <si>
     <t>id</t>
   </si>
@@ -418,6 +409,9 @@
   </si>
   <si>
     <t>Votantes</t>
+  </si>
+  <si>
+    <t>Rendimiento</t>
   </si>
 </sst>
 </file>
@@ -562,15 +556,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E6785A7-079D-4244-BDFC-21026FD6BBEF}" name="Parametros" displayName="Parametros" ref="A1:E110" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="A1:E110" xr:uid="{2C220655-94F0-4414-A8AD-19396CBE3A66}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E6785A7-079D-4244-BDFC-21026FD6BBEF}" name="Parametros" displayName="Parametros" ref="A1:E111" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:E111" xr:uid="{2C220655-94F0-4414-A8AD-19396CBE3A66}"/>
   <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{59970D34-7128-44F3-9C21-7F056D5DC554}" name="id"/>
     <tableColumn id="1" xr3:uid="{461FDEDD-1D0C-4063-A9EF-7AE280934C13}" name="nombre"/>
     <tableColumn id="2" xr3:uid="{CC3FC05B-6B12-468C-BFFC-C1504AC99A30}" name="descripcion"/>
     <tableColumn id="3" xr3:uid="{E49F250F-87B5-416E-A5FC-286C10C6004A}" name="auxiliar"/>
     <tableColumn id="4" xr3:uid="{2BF3C2F3-B0F5-4363-8950-27519BC7E6CF}" name="parametro" dataDxfId="0">
-      <calculatedColumnFormula>+"INSERT INTO "&amp;$E$3&amp;" VALUES ("&amp;A2&amp;","&amp;"'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"');"</calculatedColumnFormula>
+      <calculatedColumnFormula>+"INSERT INTO "&amp;$E$1&amp;" VALUES ("&amp;A2&amp;","&amp;"'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"');"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -874,22 +868,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E3C2F8-970B-43BC-8342-3A6219B587E1}">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E110"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -906,7 +900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -917,11 +911,11 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f t="shared" ref="E2:E65" ca="1" si="0">+"INSERT INTO "&amp;$E$3&amp;" VALUES ("&amp;A2&amp;","&amp;"'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"');"</f>
-        <v>INSERT INTO  VALUES (1,'Administración','','Administración ');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E2:E33" si="0">+"INSERT INTO "&amp;$E$1&amp;" VALUES ("&amp;A2&amp;","&amp;"'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"');"</f>
+        <v>INSERT INTO parametro VALUES (1,'Administración','','Administración ');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>+A2+1</f>
         <v>2</v>
@@ -933,11 +927,11 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (2,'Área ','','Unidad Medida');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (2,'Área ','','Unidad Medida');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="1">+A3+1</f>
         <v>3</v>
@@ -949,11 +943,11 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (2,'Artistas ','','Cultura');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (3,'Artistas ','','Cultura');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -965,11 +959,11 @@
         <v>6</v>
       </c>
       <c r="E5" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (3,'Balance ','','Administración ');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (4,'Balance ','','Administración ');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -981,11 +975,11 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (3,'Brecha ','','Genérico');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (5,'Brecha ','','Genérico');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -997,11 +991,11 @@
         <v>13</v>
       </c>
       <c r="E7" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (4,'Calidad ','','Genérico');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (6,'Calidad ','','Genérico');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1013,11 +1007,11 @@
         <v>16</v>
       </c>
       <c r="E8" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (4,'Candidatos','','Elecciones');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (7,'Candidatos','','Elecciones');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1029,11 +1023,11 @@
         <v>13</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (5,'Cantidad','','Genérico');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (8,'Cantidad','','Genérico');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1045,11 +1039,11 @@
         <v>19</v>
       </c>
       <c r="E10" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (5,'Capital ','','Economía');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (9,'Capital ','','Economía');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1061,11 +1055,11 @@
         <v>8</v>
       </c>
       <c r="E11" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (6,'Carga','','Unidad Medida');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (10,'Carga','','Unidad Medida');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1077,11 +1071,11 @@
         <v>22</v>
       </c>
       <c r="E12" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (6,'Casos','','Salud');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (11,'Casos','','Salud');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1093,11 +1087,11 @@
         <v>13</v>
       </c>
       <c r="E13" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (7,'Categorías','','Genérico');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (12,'Categorías','','Genérico');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1109,11 +1103,11 @@
         <v>13</v>
       </c>
       <c r="E14" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (7,'Cifra ','','Genérico');</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (13,'Cifra ','','Genérico');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1125,11 +1119,11 @@
         <v>13</v>
       </c>
       <c r="E15" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (8,'Clases','','Genérico');</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (14,'Clases','','Genérico');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1141,11 +1135,11 @@
         <v>19</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (8,'Cobrar ','','Economía');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (15,'Cobrar ','','Economía');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1157,11 +1151,11 @@
         <v>19</v>
       </c>
       <c r="E17" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (9,'Comercio ','','Economía');</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (16,'Comercio ','','Economía');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1173,11 +1167,11 @@
         <v>19</v>
       </c>
       <c r="E18" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (9,'Competitividad ','','Economía');</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (17,'Competitividad ','','Economía');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1189,11 +1183,11 @@
         <v>30</v>
       </c>
       <c r="E19" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (10,'Conectividad ','','Transporte');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (18,'Conectividad ','','Transporte');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1205,11 +1199,11 @@
         <v>19</v>
       </c>
       <c r="E20" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (10,'Consumo','','Economía');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (19,'Consumo','','Economía');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1221,11 +1215,11 @@
         <v>33</v>
       </c>
       <c r="E21" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (11,'Contaminación ','','Ambiente');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (20,'Contaminación ','','Ambiente');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1237,11 +1231,11 @@
         <v>6</v>
       </c>
       <c r="E22" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (11,'Contribuyentes ','','Administración ');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (21,'Contribuyentes ','','Administración ');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1253,11 +1247,11 @@
         <v>19</v>
       </c>
       <c r="E23" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (12,'Costo ','','Economía');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (22,'Costo ','','Economía');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1269,11 +1263,11 @@
         <v>19</v>
       </c>
       <c r="E24" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (12,'Cuentas ','','Economía');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (23,'Cuentas ','','Economía');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1285,11 +1279,11 @@
         <v>19</v>
       </c>
       <c r="E25" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (13,'Cuota de mercado ','','Economía');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (24,'Cuota de mercado ','','Economía');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1301,11 +1295,11 @@
         <v>39</v>
       </c>
       <c r="E26" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (13,'Delitos','','Delincuencia');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (25,'Delitos','','Delincuencia');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1317,11 +1311,11 @@
         <v>13</v>
       </c>
       <c r="E27" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (14,'Desarrollo ','','Genérico');</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (26,'Desarrollo ','','Genérico');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1333,11 +1327,11 @@
         <v>42</v>
       </c>
       <c r="E28" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (14,'Descargas ','','Internet');</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (27,'Descargas ','','Internet');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1349,11 +1343,11 @@
         <v>44</v>
       </c>
       <c r="E29" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (15,'Destinos ','','Turismo');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (28,'Destinos ','','Turismo');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1365,11 +1359,11 @@
         <v>8</v>
       </c>
       <c r="E30" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (15,'Distancia','','Unidad Medida');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (29,'Distancia','','Unidad Medida');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1381,11 +1375,11 @@
         <v>33</v>
       </c>
       <c r="E31" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (16,'Emisión ','','Ambiente');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (30,'Emisión ','','Ambiente');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -1397,11 +1391,11 @@
         <v>33</v>
       </c>
       <c r="E32" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (16,'Emisiones','','Ambiente');</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (31,'Emisiones','','Ambiente');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1413,11 +1407,11 @@
         <v>6</v>
       </c>
       <c r="E33" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (17,'Empleados','','Administración ');</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO parametro VALUES (32,'Empleados','','Administración ');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1429,11 +1423,11 @@
         <v>13</v>
       </c>
       <c r="E34" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (17,'Escasez ','','Genérico');</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E34:E65" si="2">+"INSERT INTO "&amp;$E$1&amp;" VALUES ("&amp;A34&amp;","&amp;"'"&amp;B34&amp;"','"&amp;C34&amp;"','"&amp;D34&amp;"');"</f>
+        <v>INSERT INTO parametro VALUES (33,'Escasez ','','Genérico');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1445,11 +1439,11 @@
         <v>13</v>
       </c>
       <c r="E35" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (18,'Estado ','','Genérico');</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (34,'Estado ','','Genérico');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1461,11 +1455,11 @@
         <v>52</v>
       </c>
       <c r="E36" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (18,'Estimación','','Futuro');</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (35,'Estimación','','Futuro');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1477,11 +1471,11 @@
         <v>8</v>
       </c>
       <c r="E37" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (19,'Evapotranspiración','','Unidad Medida');</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (36,'Evapotranspiración','','Unidad Medida');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1493,11 +1487,11 @@
         <v>13</v>
       </c>
       <c r="E38" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (19,'Evolución','','Genérico');</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (37,'Evolución','','Genérico');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1509,11 +1503,11 @@
         <v>19</v>
       </c>
       <c r="E39" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (20,'Exportaciones','','Economía');</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (38,'Exportaciones','','Economía');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -1525,11 +1519,11 @@
         <v>19</v>
       </c>
       <c r="E40" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (20,'Facturación ','','Economía');</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (39,'Facturación ','','Economía');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -1541,11 +1535,11 @@
         <v>13</v>
       </c>
       <c r="E41" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (21,'Frecuencia','','Genérico');</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (40,'Frecuencia','','Genérico');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -1557,11 +1551,11 @@
         <v>6</v>
       </c>
       <c r="E42" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (21,'Funcionarios','','Administración ');</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (41,'Funcionarios','','Administración ');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1573,11 +1567,11 @@
         <v>6</v>
       </c>
       <c r="E43" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (22,'Funciones ','','Administración ');</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (42,'Funciones ','','Administración ');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -1589,11 +1583,11 @@
         <v>52</v>
       </c>
       <c r="E44" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (22,'Futuro ','','Futuro');</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (43,'Futuro ','','Futuro');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -1605,11 +1599,11 @@
         <v>19</v>
       </c>
       <c r="E45" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (23,'Gasto ','','Economía');</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (44,'Gasto ','','Economía');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -1621,11 +1615,11 @@
         <v>13</v>
       </c>
       <c r="E46" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (23,'Grado','','Genérico');</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (45,'Grado','','Genérico');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -1637,11 +1631,11 @@
         <v>64</v>
       </c>
       <c r="E47" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (24,'Habitantes','','Demografía');</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (46,'Habitantes','','Demografía');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -1653,11 +1647,11 @@
         <v>64</v>
       </c>
       <c r="E48" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (24,'Hábitos ','','Demografía');</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (47,'Hábitos ','','Demografía');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -1669,11 +1663,11 @@
         <v>67</v>
       </c>
       <c r="E49" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (25,'Impacto ','','Otros');</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (48,'Impacto ','','Otros');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -1685,11 +1679,11 @@
         <v>19</v>
       </c>
       <c r="E50" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (25,'Importaciones','','Economía');</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (49,'Importaciones','','Economía');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -1701,11 +1695,11 @@
         <v>13</v>
       </c>
       <c r="E51" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (26,'Incremento','','Genérico');</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (50,'Incremento','','Genérico');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -1717,11 +1711,11 @@
         <v>13</v>
       </c>
       <c r="E52" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (26,'Índice ','','Genérico');</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (51,'Índice ','','Genérico');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -1733,11 +1727,11 @@
         <v>19</v>
       </c>
       <c r="E53" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (27,'Industria','','Economía');</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (52,'Industria','','Economía');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -1749,11 +1743,11 @@
         <v>52</v>
       </c>
       <c r="E54" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (27,'Inferencia','','Futuro');</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (53,'Inferencia','','Futuro');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -1765,11 +1759,11 @@
         <v>67</v>
       </c>
       <c r="E55" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (28,'Innovación ','','Otros');</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (54,'Innovación ','','Otros');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -1781,11 +1775,11 @@
         <v>64</v>
       </c>
       <c r="E56" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (28,'Líderes ','','Demografía');</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (55,'Líderes ','','Demografía');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -1797,11 +1791,11 @@
         <v>8</v>
       </c>
       <c r="E57" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (29,'Longitud ','','Unidad Medida');</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (56,'Longitud ','','Unidad Medida');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -1813,11 +1807,11 @@
         <v>22</v>
       </c>
       <c r="E58" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (29,'Muertes','','Salud');</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (57,'Muertes','','Salud');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -1829,11 +1823,11 @@
         <v>13</v>
       </c>
       <c r="E59" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (30,'Nivel ','','Genérico');</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (58,'Nivel ','','Genérico');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -1845,11 +1839,11 @@
         <v>13</v>
       </c>
       <c r="E60" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (30,'Número','','Genérico');</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (59,'Número','','Genérico');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -1861,11 +1855,11 @@
         <v>22</v>
       </c>
       <c r="E61" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (31,'Pacientes','','Salud');</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (60,'Pacientes','','Salud');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -1877,11 +1871,11 @@
         <v>13</v>
       </c>
       <c r="E62" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (31,'Participación ','','Genérico');</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (61,'Participación ','','Genérico');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -1893,11 +1887,11 @@
         <v>10</v>
       </c>
       <c r="E63" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (32,'Películas ','','Cultura');</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (62,'Películas ','','Cultura');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -1909,11 +1903,11 @@
         <v>19</v>
       </c>
       <c r="E64" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (32,'Pérdidas ','','Economía');</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (63,'Pérdidas ','','Economía');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -1925,11 +1919,11 @@
         <v>64</v>
       </c>
       <c r="E65" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>INSERT INTO  VALUES (33,'Personas','','Demografía');</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO parametro VALUES (64,'Personas','','Demografía');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -1941,11 +1935,11 @@
         <v>8</v>
       </c>
       <c r="E66" s="2" t="str">
-        <f t="shared" ref="E66:E110" ca="1" si="2">+"INSERT INTO "&amp;$E$3&amp;" VALUES ("&amp;A66&amp;","&amp;"'"&amp;B66&amp;"','"&amp;C66&amp;"','"&amp;D66&amp;"');"</f>
-        <v>INSERT INTO  VALUES (33,'Peso','','Unidad Medida');</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E66:E97" si="3">+"INSERT INTO "&amp;$E$1&amp;" VALUES ("&amp;A66&amp;","&amp;"'"&amp;B66&amp;"','"&amp;C66&amp;"','"&amp;D66&amp;"');"</f>
+        <v>INSERT INTO parametro VALUES (65,'Peso','','Unidad Medida');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -1957,13 +1951,13 @@
         <v>13</v>
       </c>
       <c r="E67" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (34,'Planes','','Genérico');</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (66,'Planes','','Genérico');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" ref="A68:A110" si="3">+A67+1</f>
+        <f t="shared" ref="A68:A110" si="4">+A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" t="s">
@@ -1973,13 +1967,13 @@
         <v>64</v>
       </c>
       <c r="E68" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (34,'Población','','Demografía');</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (67,'Población','','Demografía');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="B69" t="s">
@@ -1989,13 +1983,13 @@
         <v>10</v>
       </c>
       <c r="E69" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (35,'Popularidad ','','Cultura');</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (68,'Popularidad ','','Cultura');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="B70" t="s">
@@ -2005,13 +1999,13 @@
         <v>13</v>
       </c>
       <c r="E70" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (35,'Porcentaje ','','Genérico');</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (69,'Porcentaje ','','Genérico');</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="B71" t="s">
@@ -2021,13 +2015,13 @@
         <v>67</v>
       </c>
       <c r="E71" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (36,'Posesión  ','','Otros');</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (70,'Posesión  ','','Otros');</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="B72" t="s">
@@ -2037,13 +2031,13 @@
         <v>8</v>
       </c>
       <c r="E72" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (36,'Potencia ','','Unidad Medida');</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (71,'Potencia ','','Unidad Medida');</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="B73" t="s">
@@ -2053,13 +2047,13 @@
         <v>19</v>
       </c>
       <c r="E73" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (37,'Precios','','Economía');</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (72,'Precios','','Economía');</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="B74" t="s">
@@ -2069,13 +2063,13 @@
         <v>52</v>
       </c>
       <c r="E74" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (37,'Predicción','','Futuro');</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (73,'Predicción','','Futuro');</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="B75" t="s">
@@ -2085,13 +2079,13 @@
         <v>13</v>
       </c>
       <c r="E75" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (38,'Preferencias ','','Genérico');</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (74,'Preferencias ','','Genérico');</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="B76" t="s">
@@ -2101,13 +2095,13 @@
         <v>10</v>
       </c>
       <c r="E76" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (38,'Premios ','','Cultura');</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (75,'Premios ','','Cultura');</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="B77" t="s">
@@ -2117,13 +2111,13 @@
         <v>13</v>
       </c>
       <c r="E77" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (39,'Presencia ','','Genérico');</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (76,'Presencia ','','Genérico');</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="B78" t="s">
@@ -2133,13 +2127,13 @@
         <v>8</v>
       </c>
       <c r="E78" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (39,'Presión ','','Unidad Medida');</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (77,'Presión ','','Unidad Medida');</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="B79" t="s">
@@ -2149,13 +2143,13 @@
         <v>13</v>
       </c>
       <c r="E79" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (40,'Principales ','','Genérico');</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (78,'Principales ','','Genérico');</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="B80" t="s">
@@ -2165,13 +2159,13 @@
         <v>19</v>
       </c>
       <c r="E80" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (40,'Producción ','','Economía');</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (79,'Producción ','','Economía');</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="B81" t="s">
@@ -2181,13 +2175,13 @@
         <v>13</v>
       </c>
       <c r="E81" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (41,'Programas','','Genérico');</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (80,'Programas','','Genérico');</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="B82" t="s">
@@ -2197,13 +2191,13 @@
         <v>13</v>
       </c>
       <c r="E82" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (41,'Proporción','','Genérico');</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (81,'Proporción','','Genérico');</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="B83" t="s">
@@ -2213,13 +2207,13 @@
         <v>52</v>
       </c>
       <c r="E83" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (42,'Proyección','','Futuro');</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (82,'Proyección','','Futuro');</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="B84" t="s">
@@ -2229,13 +2223,13 @@
         <v>13</v>
       </c>
       <c r="E84" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (42,'Ranking ','','Genérico');</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (83,'Ranking ','','Genérico');</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="B85" t="s">
@@ -2245,13 +2239,13 @@
         <v>67</v>
       </c>
       <c r="E85" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (43,'Recuperación ','','Otros');</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (84,'Recuperación ','','Otros');</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="B86" t="s">
@@ -2261,13 +2255,13 @@
         <v>22</v>
       </c>
       <c r="E86" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (43,'Recuperados','','Salud');</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (85,'Recuperados','','Salud');</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="B87" t="s">
@@ -2277,13 +2271,13 @@
         <v>13</v>
       </c>
       <c r="E87" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (44,'Registro ','','Genérico');</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (86,'Registro ','','Genérico');</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="B88" t="s">
@@ -2293,13 +2287,13 @@
         <v>13</v>
       </c>
       <c r="E88" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (44,'Resultados','','Genérico');</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (87,'Resultados','','Genérico');</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="B89" t="s">
@@ -2309,13 +2303,13 @@
         <v>30</v>
       </c>
       <c r="E89" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (45,'Ruta ','','Transporte');</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (88,'Ruta ','','Transporte');</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="B90" t="s">
@@ -2325,13 +2319,13 @@
         <v>67</v>
       </c>
       <c r="E90" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (45,'Selección ','','Otros');</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (89,'Selección ','','Otros');</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="B91" t="s">
@@ -2341,13 +2335,13 @@
         <v>16</v>
       </c>
       <c r="E91" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (46,'Sondeo ','','Elecciones');</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (90,'Sondeo ','','Elecciones');</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="B92" t="s">
@@ -2357,13 +2351,13 @@
         <v>8</v>
       </c>
       <c r="E92" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (46,'Superficie','','Unidad Medida');</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (91,'Superficie','','Unidad Medida');</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="B93" t="s">
@@ -2373,13 +2367,13 @@
         <v>13</v>
       </c>
       <c r="E93" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (47,'Tasa','','Genérico');</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (92,'Tasa','','Genérico');</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="B94" t="s">
@@ -2389,13 +2383,13 @@
         <v>8</v>
       </c>
       <c r="E94" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (47,'Temperatura ','','Unidad Medida');</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (93,'Temperatura ','','Unidad Medida');</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="B95" t="s">
@@ -2405,13 +2399,13 @@
         <v>33</v>
       </c>
       <c r="E95" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (48,'Tiempo ','','Ambiente');</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (94,'Tiempo ','','Ambiente');</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="B96" t="s">
@@ -2421,13 +2415,13 @@
         <v>13</v>
       </c>
       <c r="E96" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (48,'Top 20','','Genérico');</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (95,'Top 20','','Genérico');</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="B97" t="s">
@@ -2437,13 +2431,13 @@
         <v>13</v>
       </c>
       <c r="E97" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (49,'Top 100 ','','Genérico');</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO parametro VALUES (96,'Top 100 ','','Genérico');</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="B98" t="s">
@@ -2453,13 +2447,13 @@
         <v>30</v>
       </c>
       <c r="E98" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (49,'Tráfico','','Transporte');</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E98:E129" si="5">+"INSERT INTO "&amp;$E$1&amp;" VALUES ("&amp;A98&amp;","&amp;"'"&amp;B98&amp;"','"&amp;C98&amp;"','"&amp;D98&amp;"');"</f>
+        <v>INSERT INTO parametro VALUES (97,'Tráfico','','Transporte');</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="B99" t="s">
@@ -2469,13 +2463,13 @@
         <v>19</v>
       </c>
       <c r="E99" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (50,'Transacciones ','','Economía');</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO parametro VALUES (98,'Transacciones ','','Economía');</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="B100" t="s">
@@ -2485,13 +2479,13 @@
         <v>19</v>
       </c>
       <c r="E100" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (50,'Transformación ','','Economía');</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO parametro VALUES (99,'Transformación ','','Economía');</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="B101" t="s">
@@ -2501,13 +2495,13 @@
         <v>30</v>
       </c>
       <c r="E101" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (51,'Transporte','','Transporte');</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO parametro VALUES (100,'Transporte','','Transporte');</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>101</v>
       </c>
       <c r="B102" t="s">
@@ -2517,13 +2511,13 @@
         <v>6</v>
       </c>
       <c r="E102" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (51,'Tributación ','','Administración ');</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO parametro VALUES (101,'Tributación ','','Administración ');</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
       <c r="B103" t="s">
@@ -2533,13 +2527,13 @@
         <v>67</v>
       </c>
       <c r="E103" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (52,'Uso ','','Otros');</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO parametro VALUES (102,'Uso ','','Otros');</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
       <c r="B104" t="s">
@@ -2549,13 +2543,13 @@
         <v>42</v>
       </c>
       <c r="E104" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (52,'Usuarios ','','Internet');</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO parametro VALUES (103,'Usuarios ','','Internet');</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="B105" t="s">
@@ -2565,13 +2559,13 @@
         <v>13</v>
       </c>
       <c r="E105" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (53,'Valor','','Genérico');</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO parametro VALUES (104,'Valor','','Genérico');</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>105</v>
       </c>
       <c r="B106" t="s">
@@ -2581,13 +2575,13 @@
         <v>8</v>
       </c>
       <c r="E106" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (53,'Velocidad ','','Unidad Medida');</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO parametro VALUES (105,'Velocidad ','','Unidad Medida');</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
       <c r="B107" t="s">
@@ -2597,13 +2591,13 @@
         <v>19</v>
       </c>
       <c r="E107" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (54,'Ventas','','Economía');</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO parametro VALUES (106,'Ventas','','Economía');</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>107</v>
       </c>
       <c r="B108" t="s">
@@ -2613,13 +2607,13 @@
         <v>8</v>
       </c>
       <c r="E108" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (54,'Volumen','','Unidad Medida');</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO parametro VALUES (107,'Volumen','','Unidad Medida');</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="B109" t="s">
@@ -2629,13 +2623,13 @@
         <v>16</v>
       </c>
       <c r="E109" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (55,'Votaciones','','Elecciones');</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO parametro VALUES (108,'Votaciones','','Elecciones');</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>109</v>
       </c>
       <c r="B110" t="s">
@@ -2645,8 +2639,23 @@
         <v>16</v>
       </c>
       <c r="E110" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>INSERT INTO  VALUES (55,'Votantes','','Elecciones');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO parametro VALUES (109,'Votantes','','Elecciones');</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>128</v>
+      </c>
+      <c r="D111" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT INTO parametro VALUES (110,'Rendimiento','','Economía');</v>
       </c>
     </row>
   </sheetData>

--- a/000 TABLAS GENERALES/Parametros.xlsx
+++ b/000 TABLAS GENERALES/Parametros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB580BA-4F7C-43E5-A3AA-8E8DC716D1E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C65797-4AC9-4A70-AE18-F600BA20F028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{869A6AB3-C8F1-4106-B639-0A77B497AF74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{869A6AB3-C8F1-4106-B639-0A77B497AF74}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="135">
   <si>
     <t>id</t>
   </si>
@@ -412,6 +421,24 @@
   </si>
   <si>
     <t>Rendimiento</t>
+  </si>
+  <si>
+    <t>Víctimas</t>
+  </si>
+  <si>
+    <t>Femicidios</t>
+  </si>
+  <si>
+    <t>Denuncias</t>
+  </si>
+  <si>
+    <t>Detenciones</t>
+  </si>
+  <si>
+    <t>Aprehenciones</t>
+  </si>
+  <si>
+    <t>Violaciones</t>
   </si>
 </sst>
 </file>
@@ -488,13 +515,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,8 +584,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E6785A7-079D-4244-BDFC-21026FD6BBEF}" name="Parametros" displayName="Parametros" ref="A1:E111" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="A1:E111" xr:uid="{2C220655-94F0-4414-A8AD-19396CBE3A66}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E6785A7-079D-4244-BDFC-21026FD6BBEF}" name="Parametros" displayName="Parametros" ref="A1:E118" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:E118" xr:uid="{2C220655-94F0-4414-A8AD-19396CBE3A66}"/>
   <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{59970D34-7128-44F3-9C21-7F056D5DC554}" name="id"/>
     <tableColumn id="1" xr3:uid="{461FDEDD-1D0C-4063-A9EF-7AE280934C13}" name="nombre"/>
@@ -868,22 +896,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E3C2F8-970B-43BC-8342-3A6219B587E1}">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="41.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -900,7 +928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -915,7 +943,7 @@
         <v>INSERT INTO parametro VALUES (1,'Administración','','Administración ');</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>+A2+1</f>
         <v>2</v>
@@ -931,7 +959,7 @@
         <v>INSERT INTO parametro VALUES (2,'Área ','','Unidad Medida');</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="1">+A3+1</f>
         <v>3</v>
@@ -947,7 +975,7 @@
         <v>INSERT INTO parametro VALUES (3,'Artistas ','','Cultura');</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -963,7 +991,7 @@
         <v>INSERT INTO parametro VALUES (4,'Balance ','','Administración ');</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -979,7 +1007,7 @@
         <v>INSERT INTO parametro VALUES (5,'Brecha ','','Genérico');</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -995,7 +1023,7 @@
         <v>INSERT INTO parametro VALUES (6,'Calidad ','','Genérico');</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1011,7 +1039,7 @@
         <v>INSERT INTO parametro VALUES (7,'Candidatos','','Elecciones');</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1027,7 +1055,7 @@
         <v>INSERT INTO parametro VALUES (8,'Cantidad','','Genérico');</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1043,7 +1071,7 @@
         <v>INSERT INTO parametro VALUES (9,'Capital ','','Economía');</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1059,7 +1087,7 @@
         <v>INSERT INTO parametro VALUES (10,'Carga','','Unidad Medida');</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1075,7 +1103,7 @@
         <v>INSERT INTO parametro VALUES (11,'Casos','','Salud');</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1091,7 +1119,7 @@
         <v>INSERT INTO parametro VALUES (12,'Categorías','','Genérico');</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1107,7 +1135,7 @@
         <v>INSERT INTO parametro VALUES (13,'Cifra ','','Genérico');</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1123,7 +1151,7 @@
         <v>INSERT INTO parametro VALUES (14,'Clases','','Genérico');</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1139,7 +1167,7 @@
         <v>INSERT INTO parametro VALUES (15,'Cobrar ','','Economía');</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1155,7 +1183,7 @@
         <v>INSERT INTO parametro VALUES (16,'Comercio ','','Economía');</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1171,7 +1199,7 @@
         <v>INSERT INTO parametro VALUES (17,'Competitividad ','','Economía');</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1187,7 +1215,7 @@
         <v>INSERT INTO parametro VALUES (18,'Conectividad ','','Transporte');</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1203,7 +1231,7 @@
         <v>INSERT INTO parametro VALUES (19,'Consumo','','Economía');</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1219,7 +1247,7 @@
         <v>INSERT INTO parametro VALUES (20,'Contaminación ','','Ambiente');</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1235,7 +1263,7 @@
         <v>INSERT INTO parametro VALUES (21,'Contribuyentes ','','Administración ');</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1251,7 +1279,7 @@
         <v>INSERT INTO parametro VALUES (22,'Costo ','','Economía');</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1267,7 +1295,7 @@
         <v>INSERT INTO parametro VALUES (23,'Cuentas ','','Economía');</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1283,7 +1311,7 @@
         <v>INSERT INTO parametro VALUES (24,'Cuota de mercado ','','Economía');</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1299,7 +1327,7 @@
         <v>INSERT INTO parametro VALUES (25,'Delitos','','Delincuencia');</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1315,7 +1343,7 @@
         <v>INSERT INTO parametro VALUES (26,'Desarrollo ','','Genérico');</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1331,7 +1359,7 @@
         <v>INSERT INTO parametro VALUES (27,'Descargas ','','Internet');</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1347,7 +1375,7 @@
         <v>INSERT INTO parametro VALUES (28,'Destinos ','','Turismo');</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1363,7 +1391,7 @@
         <v>INSERT INTO parametro VALUES (29,'Distancia','','Unidad Medida');</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1379,7 +1407,7 @@
         <v>INSERT INTO parametro VALUES (30,'Emisión ','','Ambiente');</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -1395,7 +1423,7 @@
         <v>INSERT INTO parametro VALUES (31,'Emisiones','','Ambiente');</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1411,7 +1439,7 @@
         <v>INSERT INTO parametro VALUES (32,'Empleados','','Administración ');</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1427,7 +1455,7 @@
         <v>INSERT INTO parametro VALUES (33,'Escasez ','','Genérico');</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1443,7 +1471,7 @@
         <v>INSERT INTO parametro VALUES (34,'Estado ','','Genérico');</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1459,7 +1487,7 @@
         <v>INSERT INTO parametro VALUES (35,'Estimación','','Futuro');</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1475,7 +1503,7 @@
         <v>INSERT INTO parametro VALUES (36,'Evapotranspiración','','Unidad Medida');</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1491,7 +1519,7 @@
         <v>INSERT INTO parametro VALUES (37,'Evolución','','Genérico');</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1507,7 +1535,7 @@
         <v>INSERT INTO parametro VALUES (38,'Exportaciones','','Economía');</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -1523,7 +1551,7 @@
         <v>INSERT INTO parametro VALUES (39,'Facturación ','','Economía');</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -1539,7 +1567,7 @@
         <v>INSERT INTO parametro VALUES (40,'Frecuencia','','Genérico');</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -1555,7 +1583,7 @@
         <v>INSERT INTO parametro VALUES (41,'Funcionarios','','Administración ');</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1571,7 +1599,7 @@
         <v>INSERT INTO parametro VALUES (42,'Funciones ','','Administración ');</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -1587,7 +1615,7 @@
         <v>INSERT INTO parametro VALUES (43,'Futuro ','','Futuro');</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -1603,7 +1631,7 @@
         <v>INSERT INTO parametro VALUES (44,'Gasto ','','Economía');</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -1619,7 +1647,7 @@
         <v>INSERT INTO parametro VALUES (45,'Grado','','Genérico');</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -1635,7 +1663,7 @@
         <v>INSERT INTO parametro VALUES (46,'Habitantes','','Demografía');</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -1651,7 +1679,7 @@
         <v>INSERT INTO parametro VALUES (47,'Hábitos ','','Demografía');</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -1667,7 +1695,7 @@
         <v>INSERT INTO parametro VALUES (48,'Impacto ','','Otros');</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -1683,7 +1711,7 @@
         <v>INSERT INTO parametro VALUES (49,'Importaciones','','Economía');</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -1699,7 +1727,7 @@
         <v>INSERT INTO parametro VALUES (50,'Incremento','','Genérico');</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -1715,7 +1743,7 @@
         <v>INSERT INTO parametro VALUES (51,'Índice ','','Genérico');</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -1731,7 +1759,7 @@
         <v>INSERT INTO parametro VALUES (52,'Industria','','Economía');</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -1747,7 +1775,7 @@
         <v>INSERT INTO parametro VALUES (53,'Inferencia','','Futuro');</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -1763,7 +1791,7 @@
         <v>INSERT INTO parametro VALUES (54,'Innovación ','','Otros');</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -1779,7 +1807,7 @@
         <v>INSERT INTO parametro VALUES (55,'Líderes ','','Demografía');</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -1795,7 +1823,7 @@
         <v>INSERT INTO parametro VALUES (56,'Longitud ','','Unidad Medida');</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -1811,7 +1839,7 @@
         <v>INSERT INTO parametro VALUES (57,'Muertes','','Salud');</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -1827,7 +1855,7 @@
         <v>INSERT INTO parametro VALUES (58,'Nivel ','','Genérico');</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -1843,7 +1871,7 @@
         <v>INSERT INTO parametro VALUES (59,'Número','','Genérico');</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -1859,7 +1887,7 @@
         <v>INSERT INTO parametro VALUES (60,'Pacientes','','Salud');</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -1875,7 +1903,7 @@
         <v>INSERT INTO parametro VALUES (61,'Participación ','','Genérico');</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -1891,7 +1919,7 @@
         <v>INSERT INTO parametro VALUES (62,'Películas ','','Cultura');</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -1907,7 +1935,7 @@
         <v>INSERT INTO parametro VALUES (63,'Pérdidas ','','Economía');</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -1923,7 +1951,7 @@
         <v>INSERT INTO parametro VALUES (64,'Personas','','Demografía');</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -1939,7 +1967,7 @@
         <v>INSERT INTO parametro VALUES (65,'Peso','','Unidad Medida');</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -1955,7 +1983,7 @@
         <v>INSERT INTO parametro VALUES (66,'Planes','','Genérico');</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" ref="A68:A110" si="4">+A67+1</f>
         <v>67</v>
@@ -1971,7 +1999,7 @@
         <v>INSERT INTO parametro VALUES (67,'Población','','Demografía');</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="4"/>
         <v>68</v>
@@ -1987,7 +2015,7 @@
         <v>INSERT INTO parametro VALUES (68,'Popularidad ','','Cultura');</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="4"/>
         <v>69</v>
@@ -2003,7 +2031,7 @@
         <v>INSERT INTO parametro VALUES (69,'Porcentaje ','','Genérico');</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="4"/>
         <v>70</v>
@@ -2019,7 +2047,7 @@
         <v>INSERT INTO parametro VALUES (70,'Posesión  ','','Otros');</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="4"/>
         <v>71</v>
@@ -2035,7 +2063,7 @@
         <v>INSERT INTO parametro VALUES (71,'Potencia ','','Unidad Medida');</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="4"/>
         <v>72</v>
@@ -2051,7 +2079,7 @@
         <v>INSERT INTO parametro VALUES (72,'Precios','','Economía');</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="4"/>
         <v>73</v>
@@ -2067,7 +2095,7 @@
         <v>INSERT INTO parametro VALUES (73,'Predicción','','Futuro');</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="4"/>
         <v>74</v>
@@ -2083,7 +2111,7 @@
         <v>INSERT INTO parametro VALUES (74,'Preferencias ','','Genérico');</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="4"/>
         <v>75</v>
@@ -2099,7 +2127,7 @@
         <v>INSERT INTO parametro VALUES (75,'Premios ','','Cultura');</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="4"/>
         <v>76</v>
@@ -2115,7 +2143,7 @@
         <v>INSERT INTO parametro VALUES (76,'Presencia ','','Genérico');</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="4"/>
         <v>77</v>
@@ -2131,7 +2159,7 @@
         <v>INSERT INTO parametro VALUES (77,'Presión ','','Unidad Medida');</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="4"/>
         <v>78</v>
@@ -2147,7 +2175,7 @@
         <v>INSERT INTO parametro VALUES (78,'Principales ','','Genérico');</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="4"/>
         <v>79</v>
@@ -2163,7 +2191,7 @@
         <v>INSERT INTO parametro VALUES (79,'Producción ','','Economía');</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="4"/>
         <v>80</v>
@@ -2179,7 +2207,7 @@
         <v>INSERT INTO parametro VALUES (80,'Programas','','Genérico');</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="4"/>
         <v>81</v>
@@ -2195,7 +2223,7 @@
         <v>INSERT INTO parametro VALUES (81,'Proporción','','Genérico');</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="4"/>
         <v>82</v>
@@ -2211,7 +2239,7 @@
         <v>INSERT INTO parametro VALUES (82,'Proyección','','Futuro');</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="4"/>
         <v>83</v>
@@ -2227,7 +2255,7 @@
         <v>INSERT INTO parametro VALUES (83,'Ranking ','','Genérico');</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="4"/>
         <v>84</v>
@@ -2243,7 +2271,7 @@
         <v>INSERT INTO parametro VALUES (84,'Recuperación ','','Otros');</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="4"/>
         <v>85</v>
@@ -2259,7 +2287,7 @@
         <v>INSERT INTO parametro VALUES (85,'Recuperados','','Salud');</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="4"/>
         <v>86</v>
@@ -2275,7 +2303,7 @@
         <v>INSERT INTO parametro VALUES (86,'Registro ','','Genérico');</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="4"/>
         <v>87</v>
@@ -2291,7 +2319,7 @@
         <v>INSERT INTO parametro VALUES (87,'Resultados','','Genérico');</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="4"/>
         <v>88</v>
@@ -2307,7 +2335,7 @@
         <v>INSERT INTO parametro VALUES (88,'Ruta ','','Transporte');</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="4"/>
         <v>89</v>
@@ -2323,7 +2351,7 @@
         <v>INSERT INTO parametro VALUES (89,'Selección ','','Otros');</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="4"/>
         <v>90</v>
@@ -2339,7 +2367,7 @@
         <v>INSERT INTO parametro VALUES (90,'Sondeo ','','Elecciones');</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" si="4"/>
         <v>91</v>
@@ -2355,7 +2383,7 @@
         <v>INSERT INTO parametro VALUES (91,'Superficie','','Unidad Medida');</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <f t="shared" si="4"/>
         <v>92</v>
@@ -2371,7 +2399,7 @@
         <v>INSERT INTO parametro VALUES (92,'Tasa','','Genérico');</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <f t="shared" si="4"/>
         <v>93</v>
@@ -2387,7 +2415,7 @@
         <v>INSERT INTO parametro VALUES (93,'Temperatura ','','Unidad Medida');</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <f t="shared" si="4"/>
         <v>94</v>
@@ -2403,7 +2431,7 @@
         <v>INSERT INTO parametro VALUES (94,'Tiempo ','','Ambiente');</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <f t="shared" si="4"/>
         <v>95</v>
@@ -2419,7 +2447,7 @@
         <v>INSERT INTO parametro VALUES (95,'Top 20','','Genérico');</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <f t="shared" si="4"/>
         <v>96</v>
@@ -2435,7 +2463,7 @@
         <v>INSERT INTO parametro VALUES (96,'Top 100 ','','Genérico');</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <f t="shared" si="4"/>
         <v>97</v>
@@ -2447,11 +2475,11 @@
         <v>30</v>
       </c>
       <c r="E98" s="2" t="str">
-        <f t="shared" ref="E98:E129" si="5">+"INSERT INTO "&amp;$E$1&amp;" VALUES ("&amp;A98&amp;","&amp;"'"&amp;B98&amp;"','"&amp;C98&amp;"','"&amp;D98&amp;"');"</f>
+        <f t="shared" ref="E98:E111" si="5">+"INSERT INTO "&amp;$E$1&amp;" VALUES ("&amp;A98&amp;","&amp;"'"&amp;B98&amp;"','"&amp;C98&amp;"','"&amp;D98&amp;"');"</f>
         <v>INSERT INTO parametro VALUES (97,'Tráfico','','Transporte');</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <f t="shared" si="4"/>
         <v>98</v>
@@ -2467,7 +2495,7 @@
         <v>INSERT INTO parametro VALUES (98,'Transacciones ','','Economía');</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <f t="shared" si="4"/>
         <v>99</v>
@@ -2483,7 +2511,7 @@
         <v>INSERT INTO parametro VALUES (99,'Transformación ','','Economía');</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <f t="shared" si="4"/>
         <v>100</v>
@@ -2499,7 +2527,7 @@
         <v>INSERT INTO parametro VALUES (100,'Transporte','','Transporte');</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <f t="shared" si="4"/>
         <v>101</v>
@@ -2515,7 +2543,7 @@
         <v>INSERT INTO parametro VALUES (101,'Tributación ','','Administración ');</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <f t="shared" si="4"/>
         <v>102</v>
@@ -2531,7 +2559,7 @@
         <v>INSERT INTO parametro VALUES (102,'Uso ','','Otros');</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <f t="shared" si="4"/>
         <v>103</v>
@@ -2547,7 +2575,7 @@
         <v>INSERT INTO parametro VALUES (103,'Usuarios ','','Internet');</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <f t="shared" si="4"/>
         <v>104</v>
@@ -2563,7 +2591,7 @@
         <v>INSERT INTO parametro VALUES (104,'Valor','','Genérico');</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <f t="shared" si="4"/>
         <v>105</v>
@@ -2579,7 +2607,7 @@
         <v>INSERT INTO parametro VALUES (105,'Velocidad ','','Unidad Medida');</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <f t="shared" si="4"/>
         <v>106</v>
@@ -2595,7 +2623,7 @@
         <v>INSERT INTO parametro VALUES (106,'Ventas','','Economía');</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <f t="shared" si="4"/>
         <v>107</v>
@@ -2611,7 +2639,7 @@
         <v>INSERT INTO parametro VALUES (107,'Volumen','','Unidad Medida');</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <f t="shared" si="4"/>
         <v>108</v>
@@ -2627,7 +2655,7 @@
         <v>INSERT INTO parametro VALUES (108,'Votaciones','','Elecciones');</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <f t="shared" si="4"/>
         <v>109</v>
@@ -2643,7 +2671,7 @@
         <v>INSERT INTO parametro VALUES (109,'Votantes','','Elecciones');</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2656,6 +2684,111 @@
       <c r="E111" s="2" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO parametro VALUES (110,'Rendimiento','','Economía');</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>129</v>
+      </c>
+      <c r="D112" t="s">
+        <v>39</v>
+      </c>
+      <c r="E112" s="4" t="str">
+        <f>+"INSERT INTO "&amp;$E$1&amp;" VALUES ("&amp;A112&amp;","&amp;"'"&amp;B112&amp;"','"&amp;C112&amp;"','"&amp;D112&amp;"');"</f>
+        <v>INSERT INTO parametro VALUES (111,'Víctimas','','Delincuencia');</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" t="s">
+        <v>39</v>
+      </c>
+      <c r="E113" s="4" t="str">
+        <f>+"INSERT INTO "&amp;$E$1&amp;" VALUES ("&amp;A113&amp;","&amp;"'"&amp;B113&amp;"','"&amp;C113&amp;"','"&amp;D113&amp;"');"</f>
+        <v>INSERT INTO parametro VALUES (112,'Casos','','Delincuencia');</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>130</v>
+      </c>
+      <c r="D114" t="s">
+        <v>39</v>
+      </c>
+      <c r="E114" s="4" t="str">
+        <f>+"INSERT INTO "&amp;$E$1&amp;" VALUES ("&amp;A114&amp;","&amp;"'"&amp;B114&amp;"','"&amp;C114&amp;"','"&amp;D114&amp;"');"</f>
+        <v>INSERT INTO parametro VALUES (113,'Femicidios','','Delincuencia');</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>131</v>
+      </c>
+      <c r="D115" t="s">
+        <v>39</v>
+      </c>
+      <c r="E115" s="4" t="str">
+        <f>+"INSERT INTO "&amp;$E$1&amp;" VALUES ("&amp;A115&amp;","&amp;"'"&amp;B115&amp;"','"&amp;C115&amp;"','"&amp;D115&amp;"');"</f>
+        <v>INSERT INTO parametro VALUES (114,'Denuncias','','Delincuencia');</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>132</v>
+      </c>
+      <c r="D116" t="s">
+        <v>39</v>
+      </c>
+      <c r="E116" s="4" t="str">
+        <f>+"INSERT INTO "&amp;$E$1&amp;" VALUES ("&amp;A116&amp;","&amp;"'"&amp;B116&amp;"','"&amp;C116&amp;"','"&amp;D116&amp;"');"</f>
+        <v>INSERT INTO parametro VALUES (115,'Detenciones','','Delincuencia');</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>133</v>
+      </c>
+      <c r="D117" t="s">
+        <v>39</v>
+      </c>
+      <c r="E117" s="4" t="str">
+        <f>+"INSERT INTO "&amp;$E$1&amp;" VALUES ("&amp;A117&amp;","&amp;"'"&amp;B117&amp;"','"&amp;C117&amp;"','"&amp;D117&amp;"');"</f>
+        <v>INSERT INTO parametro VALUES (116,'Aprehenciones','','Delincuencia');</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>134</v>
+      </c>
+      <c r="D118" t="s">
+        <v>39</v>
+      </c>
+      <c r="E118" s="4" t="str">
+        <f>+"INSERT INTO "&amp;$E$1&amp;" VALUES ("&amp;A118&amp;","&amp;"'"&amp;B118&amp;"','"&amp;C118&amp;"','"&amp;D118&amp;"');"</f>
+        <v>INSERT INTO parametro VALUES (117,'Violaciones','','Delincuencia');</v>
       </c>
     </row>
   </sheetData>

--- a/000 TABLAS GENERALES/Parametros.xlsx
+++ b/000 TABLAS GENERALES/Parametros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C65797-4AC9-4A70-AE18-F600BA20F028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234B9BCE-B99C-4CBE-8D86-3EC9A462D378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{869A6AB3-C8F1-4106-B639-0A77B497AF74}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="137">
   <si>
     <t>id</t>
   </si>
@@ -435,10 +435,16 @@
     <t>Detenciones</t>
   </si>
   <si>
-    <t>Aprehenciones</t>
-  </si>
-  <si>
     <t>Violaciones</t>
+  </si>
+  <si>
+    <t>Aprehensiones</t>
+  </si>
+  <si>
+    <t>Sentencias</t>
+  </si>
+  <si>
+    <t>Casos Policiales</t>
   </si>
 </sst>
 </file>
@@ -584,8 +590,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E6785A7-079D-4244-BDFC-21026FD6BBEF}" name="Parametros" displayName="Parametros" ref="A1:E118" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="A1:E118" xr:uid="{2C220655-94F0-4414-A8AD-19396CBE3A66}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E6785A7-079D-4244-BDFC-21026FD6BBEF}" name="Parametros" displayName="Parametros" ref="A1:E120" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:E120" xr:uid="{2C220655-94F0-4414-A8AD-19396CBE3A66}"/>
   <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{59970D34-7128-44F3-9C21-7F056D5DC554}" name="id"/>
     <tableColumn id="1" xr3:uid="{461FDEDD-1D0C-4063-A9EF-7AE280934C13}" name="nombre"/>
@@ -896,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E3C2F8-970B-43BC-8342-3A6219B587E1}">
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2697,7 +2703,7 @@
         <v>39</v>
       </c>
       <c r="E112" s="4" t="str">
-        <f>+"INSERT INTO "&amp;$E$1&amp;" VALUES ("&amp;A112&amp;","&amp;"'"&amp;B112&amp;"','"&amp;C112&amp;"','"&amp;D112&amp;"');"</f>
+        <f t="shared" ref="E112:E118" si="6">+"INSERT INTO "&amp;$E$1&amp;" VALUES ("&amp;A112&amp;","&amp;"'"&amp;B112&amp;"','"&amp;C112&amp;"','"&amp;D112&amp;"');"</f>
         <v>INSERT INTO parametro VALUES (111,'Víctimas','','Delincuencia');</v>
       </c>
     </row>
@@ -2712,7 +2718,7 @@
         <v>39</v>
       </c>
       <c r="E113" s="4" t="str">
-        <f>+"INSERT INTO "&amp;$E$1&amp;" VALUES ("&amp;A113&amp;","&amp;"'"&amp;B113&amp;"','"&amp;C113&amp;"','"&amp;D113&amp;"');"</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO parametro VALUES (112,'Casos','','Delincuencia');</v>
       </c>
     </row>
@@ -2727,7 +2733,7 @@
         <v>39</v>
       </c>
       <c r="E114" s="4" t="str">
-        <f>+"INSERT INTO "&amp;$E$1&amp;" VALUES ("&amp;A114&amp;","&amp;"'"&amp;B114&amp;"','"&amp;C114&amp;"','"&amp;D114&amp;"');"</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO parametro VALUES (113,'Femicidios','','Delincuencia');</v>
       </c>
     </row>
@@ -2742,7 +2748,7 @@
         <v>39</v>
       </c>
       <c r="E115" s="4" t="str">
-        <f>+"INSERT INTO "&amp;$E$1&amp;" VALUES ("&amp;A115&amp;","&amp;"'"&amp;B115&amp;"','"&amp;C115&amp;"','"&amp;D115&amp;"');"</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO parametro VALUES (114,'Denuncias','','Delincuencia');</v>
       </c>
     </row>
@@ -2757,7 +2763,7 @@
         <v>39</v>
       </c>
       <c r="E116" s="4" t="str">
-        <f>+"INSERT INTO "&amp;$E$1&amp;" VALUES ("&amp;A116&amp;","&amp;"'"&amp;B116&amp;"','"&amp;C116&amp;"','"&amp;D116&amp;"');"</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO parametro VALUES (115,'Detenciones','','Delincuencia');</v>
       </c>
     </row>
@@ -2766,14 +2772,14 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D117" t="s">
         <v>39</v>
       </c>
       <c r="E117" s="4" t="str">
-        <f>+"INSERT INTO "&amp;$E$1&amp;" VALUES ("&amp;A117&amp;","&amp;"'"&amp;B117&amp;"','"&amp;C117&amp;"','"&amp;D117&amp;"');"</f>
-        <v>INSERT INTO parametro VALUES (116,'Aprehenciones','','Delincuencia');</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO parametro VALUES (116,'Aprehensiones','','Delincuencia');</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -2781,14 +2787,44 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D118" t="s">
         <v>39</v>
       </c>
       <c r="E118" s="4" t="str">
-        <f>+"INSERT INTO "&amp;$E$1&amp;" VALUES ("&amp;A118&amp;","&amp;"'"&amp;B118&amp;"','"&amp;C118&amp;"','"&amp;D118&amp;"');"</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO parametro VALUES (117,'Violaciones','','Delincuencia');</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>135</v>
+      </c>
+      <c r="D119" t="s">
+        <v>39</v>
+      </c>
+      <c r="E119" s="4" t="str">
+        <f>+"INSERT INTO "&amp;$E$1&amp;" VALUES ("&amp;A119&amp;","&amp;"'"&amp;B119&amp;"','"&amp;C119&amp;"','"&amp;D119&amp;"');"</f>
+        <v>INSERT INTO parametro VALUES (118,'Sentencias','','Delincuencia');</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>136</v>
+      </c>
+      <c r="D120" t="s">
+        <v>39</v>
+      </c>
+      <c r="E120" s="4" t="str">
+        <f>+"INSERT INTO "&amp;$E$1&amp;" VALUES ("&amp;A120&amp;","&amp;"'"&amp;B120&amp;"','"&amp;C120&amp;"','"&amp;D120&amp;"');"</f>
+        <v>INSERT INTO parametro VALUES (119,'Casos Policiales','','Delincuencia');</v>
       </c>
     </row>
   </sheetData>
